--- a/WorkBot/refactor/data/orders/Hillcrest Foods/Hillcrest Foods_Bakery_2025-07-27.xlsx
+++ b/WorkBot/refactor/data/orders/Hillcrest Foods/Hillcrest Foods_Bakery_2025-07-27.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -471,7 +471,466 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>258.56</t>
+          <t>323.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>70328</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Corn Meal - Coarse</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>126.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>28101</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sugar - Light Brown</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>17542</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vital Wheat Gluten</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>61.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>122.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>25170</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Raisins - Midget</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>70.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>140.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>33422</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nuts - Walnut Halves &amp; Pieces</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>124.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>124.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>25101</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Currants - Whole Zante</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17617</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Flour - Whole Wheat (Medium)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18580</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Flour - Victoria Patent (Org)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>320.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>17616</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Flour - Millers Choice</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2316.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>67214-BC</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Extract - Vanilla</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>149.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>149.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>18457</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Flour - Rye Chop</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>43.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>28173</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sugar - 10X (Powdered)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>45.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>137.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>33189</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nuts - Pine</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>230.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>230.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>27057</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Jam - Apricot Baking (Pail)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>53.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>53.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>25085</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cranberries - Sweet Dried (sliced)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>36208</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FRZ Fruit - Mango</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>53.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>53.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>39278</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Croissant - Spinach Feta</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>593.90</t>
         </is>
       </c>
     </row>
